--- a/data/option_data/call/AAP.xlsx
+++ b/data/option_data/call/AAP.xlsx
@@ -504,19 +504,19 @@
         <v>82.68000000000001</v>
       </c>
       <c r="G2">
-        <v>81.8</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>75</v>
       </c>
       <c r="I2">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>2</v>
       </c>
       <c r="K2">
-        <v>0.5006763800048828</v>
+        <v>1E-05</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -542,16 +542,16 @@
         <v>53.5</v>
       </c>
       <c r="G3">
-        <v>49.1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>120</v>
       </c>
       <c r="I3">
-        <v>53.5</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4376276940917969</v>
+        <v>1E-05</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -574,22 +574,22 @@
         <v>125</v>
       </c>
       <c r="F4">
-        <v>48</v>
+        <v>52.3</v>
       </c>
       <c r="G4">
-        <v>46.1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>125</v>
       </c>
       <c r="I4">
-        <v>50.4</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
-        <v>0.4315242395019532</v>
+        <v>1E-05</v>
       </c>
       <c r="L4" t="b">
         <v>1</v>
@@ -615,19 +615,19 @@
         <v>47.79</v>
       </c>
       <c r="G5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>135</v>
       </c>
       <c r="I5">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
-        <v>0.4261531994628907</v>
+        <v>1E-05</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
@@ -665,7 +665,7 @@
         <v>2</v>
       </c>
       <c r="K6">
-        <v>0.4173947421264648</v>
+        <v>0.3614565808105469</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
@@ -688,22 +688,22 @@
         <v>150</v>
       </c>
       <c r="F7">
-        <v>33</v>
+        <v>35.9</v>
       </c>
       <c r="G7">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>150</v>
       </c>
       <c r="I7">
-        <v>35.9</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0.3955748919677735</v>
+        <v>1E-05</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
@@ -726,19 +726,22 @@
         <v>155</v>
       </c>
       <c r="F8">
-        <v>32.8</v>
+        <v>35.05</v>
       </c>
       <c r="G8">
-        <v>30.5</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>155</v>
       </c>
       <c r="I8">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0.4092161129760742</v>
+        <v>1E-05</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -764,22 +767,22 @@
         <v>31</v>
       </c>
       <c r="G9">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>160</v>
       </c>
       <c r="I9">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>3</v>
       </c>
       <c r="K9">
-        <v>0.4080106806945801</v>
+        <v>1E-05</v>
       </c>
       <c r="L9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -799,19 +802,22 @@
         <v>165</v>
       </c>
       <c r="F10">
-        <v>27.6</v>
+        <v>30.5</v>
       </c>
       <c r="G10">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>165</v>
       </c>
       <c r="I10">
-        <v>29.6</v>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0.3891204887390137</v>
+        <v>0.0039162109375</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -837,19 +843,19 @@
         <v>25.8</v>
       </c>
       <c r="G11">
-        <v>24.1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>170</v>
       </c>
       <c r="I11">
-        <v>28.3</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
-        <v>0.3938964419555664</v>
+        <v>0.007822421875000001</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -884,7 +890,7 @@
         <v>11.4</v>
       </c>
       <c r="K12">
-        <v>0.3585269226074219</v>
+        <v>0.334418276977539</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -910,16 +916,16 @@
         <v>8.6</v>
       </c>
       <c r="G13">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="H13">
         <v>240</v>
       </c>
       <c r="I13">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="K13">
-        <v>0.3725343508911133</v>
+        <v>0.3477848425292969</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>

--- a/data/option_data/call/AAP.xlsx
+++ b/data/option_data/call/AAP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>symbol</t>
   </si>
@@ -443,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,22 +469,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -504,25 +501,22 @@
         <v>82.68000000000001</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="H2">
         <v>75</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>1E-05</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.4918874053955079</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -542,22 +536,19 @@
         <v>53.5</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>56.9</v>
       </c>
       <c r="H3">
         <v>120</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>1E-05</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="J3">
+        <v>0.4241085421752929</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -577,25 +568,22 @@
         <v>52.3</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>53.4</v>
       </c>
       <c r="H4">
         <v>125</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1E-05</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.4128476684570312</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -615,25 +603,22 @@
         <v>47.79</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>47.4</v>
       </c>
       <c r="H5">
         <v>135</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1E-05</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.4082243016052246</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -659,19 +644,16 @@
         <v>140</v>
       </c>
       <c r="I6">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>0.3614565808105469</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.3238898178100585</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -691,25 +673,22 @@
         <v>35.9</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>150</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1E-05</v>
-      </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.4060117993164062</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -729,25 +708,22 @@
         <v>35.05</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>36.3</v>
       </c>
       <c r="H8">
         <v>155</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1E-05</v>
-      </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.4005339488220215</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -767,25 +743,22 @@
         <v>31</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>33.7</v>
       </c>
       <c r="H9">
         <v>160</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="K9">
-        <v>1E-05</v>
-      </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.3986266192626954</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -805,25 +778,22 @@
         <v>30.5</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>31.7</v>
       </c>
       <c r="H10">
         <v>165</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>0.0039162109375</v>
-      </c>
-      <c r="L10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.3909973010253906</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -843,25 +813,22 @@
         <v>25.8</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>29.1</v>
       </c>
       <c r="H11">
         <v>170</v>
       </c>
       <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.3879913496398925</v>
+      </c>
+      <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>0.007822421875000001</v>
-      </c>
-      <c r="L11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -886,17 +853,14 @@
       <c r="H12">
         <v>230</v>
       </c>
-      <c r="I12">
-        <v>11.4</v>
-      </c>
-      <c r="K12">
-        <v>0.334418276977539</v>
-      </c>
-      <c r="L12" t="b">
+      <c r="J12">
+        <v>0.3190223127746581</v>
+      </c>
+      <c r="K12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -921,13 +885,10 @@
       <c r="H13">
         <v>240</v>
       </c>
-      <c r="I13">
-        <v>10.9</v>
-      </c>
-      <c r="K13">
-        <v>0.3477848425292969</v>
-      </c>
-      <c r="L13" t="b">
+      <c r="J13">
+        <v>0.3328771546936035</v>
+      </c>
+      <c r="K13" t="b">
         <v>0</v>
       </c>
     </row>
